--- a/extra-notused/reciept/template_receipt.xlsx
+++ b/extra-notused/reciept/template_receipt.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\derm-sys\extra\reciept\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\derm-sys\extra-notused\reciept\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDC21982-602E-42BC-AE2D-3255A0BFACE9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38CCDEDA-4B02-41B2-9684-1D1F0B70AB2B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{92C1AD3C-3FA8-4E46-9F3D-06E0947165E9}"/>
+    <workbookView xWindow="4665" yWindow="2130" windowWidth="21600" windowHeight="11385" xr2:uid="{92C1AD3C-3FA8-4E46-9F3D-06E0947165E9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -86,7 +86,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -117,6 +117,11 @@
       <color theme="1"/>
       <name val="Khmer OS"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Khmer OS"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -241,26 +246,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -272,31 +277,38 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -671,8 +683,8 @@
   </sheetPr>
   <dimension ref="A8:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23:G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="26.25" x14ac:dyDescent="0.8"/>
@@ -682,45 +694,46 @@
   </cols>
   <sheetData>
     <row r="8" spans="1:7" x14ac:dyDescent="0.8">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
       <c r="D8" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E8" s="3"/>
+      <c r="E8" s="17"/>
       <c r="F8" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="G8" s="17"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.8">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.8">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="8" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="9"/>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="12" t="s">
+      <c r="E10" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="13"/>
+      <c r="F10" s="12"/>
       <c r="G10" s="9"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.8">
@@ -729,152 +742,166 @@
       <c r="C11" s="11"/>
       <c r="D11" s="7"/>
       <c r="E11" s="10"/>
-      <c r="F11" s="14"/>
+      <c r="F11" s="13"/>
       <c r="G11" s="11"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.8">
-      <c r="A12" s="6"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
+      <c r="A12" s="21"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.8">
-      <c r="A13" s="6"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
+      <c r="A13" s="21"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.8">
-      <c r="A14" s="6"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
+      <c r="A14" s="21"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.8">
-      <c r="A15" s="6"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
+      <c r="A15" s="21"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.8">
-      <c r="A16" s="6"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
+      <c r="A16" s="21"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.8">
-      <c r="A17" s="6"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
+      <c r="A17" s="21"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.8">
-      <c r="A18" s="6"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
+      <c r="A18" s="21"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.8">
-      <c r="A19" s="6"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
+      <c r="A19" s="21"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.8">
-      <c r="A20" s="6"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
+      <c r="A20" s="21"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.8">
-      <c r="A21" s="6"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
+      <c r="A21" s="21"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.8">
-      <c r="A22" s="15"/>
-      <c r="B22" s="17"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
+      <c r="A22" s="22"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="20"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.8">
-      <c r="A23" s="20" t="s">
+      <c r="A23" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B23" s="18"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.8">
-      <c r="A24" s="21"/>
-      <c r="B24" s="19"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="19"/>
-      <c r="G24" s="19"/>
+      <c r="A24" s="5"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.8">
-      <c r="A25" s="16"/>
-      <c r="B25" s="19"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="19"/>
-      <c r="G25" s="19"/>
+      <c r="A25" s="3"/>
+      <c r="B25" s="15"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.8">
       <c r="B26" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C26" s="3"/>
+      <c r="C26" s="2"/>
       <c r="D26" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E26" s="3"/>
+      <c r="E26" s="2"/>
       <c r="F26" s="1" t="s">
         <v>6</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
     <mergeCell ref="A23:A24"/>
     <mergeCell ref="B23:G25"/>
     <mergeCell ref="B9:G9"/>
@@ -891,20 +918,6 @@
     <mergeCell ref="E13:G13"/>
     <mergeCell ref="E14:G14"/>
     <mergeCell ref="E15:G15"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
